--- a/Deliverable 1/BUDGET/budget draft.xlsx
+++ b/Deliverable 1/BUDGET/budget draft.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10305"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 1/BUDGET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odnan\Documents\GitHub\projectsGroup3\Deliverable 1\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FA1A1438-5681-534C-8414-C00079E0131F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" xr2:uid="{EEE0D7DF-9A79-8D45-94FB-780AF6876465}"/>
+    <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14322"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,11 +179,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,12 +339,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -359,6 +352,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -674,32 +673,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F153A5C8-EE18-5441-A4D1-00868DE1D10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.84765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.34765625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.84765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.34765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="113" customHeight="1">
+    <row r="1" spans="1:15" ht="113.05" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -733,11 +732,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -781,15 +780,15 @@
         <v>4.5</v>
       </c>
       <c r="O2" s="6">
-        <f>N2*$M$15/100</f>
+        <f t="shared" ref="O2:O12" si="0">N2*$M$15/100</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -805,22 +804,22 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G12" si="0">0.25*(D3+E3)</f>
+        <f t="shared" ref="G3:G12" si="1">0.25*(D3+E3)</f>
         <v>80000</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H12" si="1">D3+E3+F3+G3</f>
+        <f t="shared" ref="H3:H12" si="2">D3+E3+F3+G3</f>
         <v>400000</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J13" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J12" si="3">H3*I3</f>
         <v>400000</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K12" si="3">J3</f>
+        <f t="shared" ref="K3:K12" si="4">J3</f>
         <v>400000</v>
       </c>
       <c r="L3" t="s">
@@ -830,15 +829,15 @@
         <v>10</v>
       </c>
       <c r="O3" s="6">
-        <f>N3*$M$15/100</f>
+        <f t="shared" si="0"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -854,24 +853,24 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="K4" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
+      <c r="K4" s="3">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
@@ -879,15 +878,15 @@
         <v>2.5</v>
       </c>
       <c r="O4" s="6">
-        <f>N4*$M$15/100</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -898,45 +897,44 @@
         <v>540000</v>
       </c>
       <c r="E5" s="3">
-        <f>0.35*1200000</f>
-        <v>420000</v>
+        <v>180000</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>240000</v>
+        <f t="shared" si="1"/>
+        <v>180000</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>1200000</v>
+        <f t="shared" si="2"/>
+        <v>900000</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
+        <f t="shared" si="3"/>
+        <v>900000</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="3"/>
-        <v>1200000</v>
+        <f t="shared" si="4"/>
+        <v>900000</v>
       </c>
       <c r="L5" t="s">
         <v>31</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="O5" s="6">
-        <f>N5*$M$15/100</f>
-        <v>1200000</v>
+        <f t="shared" si="0"/>
+        <v>900000</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -952,24 +950,24 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220000</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="2"/>
-        <v>220000</v>
-      </c>
-      <c r="K6" s="3">
         <f t="shared" si="3"/>
         <v>220000</v>
       </c>
+      <c r="K6" s="3">
+        <f t="shared" si="4"/>
+        <v>220000</v>
+      </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>
@@ -977,18 +975,18 @@
         <v>5.5</v>
       </c>
       <c r="O6" s="6">
-        <f>N6*$M$15/100</f>
+        <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3">
@@ -1001,24 +999,24 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="K7" s="3">
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
+      <c r="K7" s="3">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
       <c r="L7" t="s">
         <v>33</v>
       </c>
@@ -1026,15 +1024,15 @@
         <v>5</v>
       </c>
       <c r="O7" s="6">
-        <f>N7*$M$15/100</f>
+        <f t="shared" si="0"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1050,24 +1048,24 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80000</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="2"/>
-        <v>400000</v>
-      </c>
-      <c r="K8" s="3">
         <f t="shared" si="3"/>
         <v>400000</v>
       </c>
+      <c r="K8" s="3">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
       <c r="L8" t="s">
         <v>34</v>
       </c>
@@ -1075,15 +1073,15 @@
         <v>10</v>
       </c>
       <c r="O8" s="6">
-        <f>N8*$M$15/100</f>
+        <f t="shared" si="0"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1099,24 +1097,24 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="K9" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
       <c r="L9" t="s">
         <v>35</v>
       </c>
@@ -1124,15 +1122,15 @@
         <v>2.5</v>
       </c>
       <c r="O9" s="6">
-        <f>N9*$M$15/100</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1148,24 +1146,24 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="K10" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
+      <c r="K10" s="3">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
       <c r="L10" t="s">
         <v>36</v>
       </c>
@@ -1173,15 +1171,15 @@
         <v>2.5</v>
       </c>
       <c r="O10" s="6">
-        <f>N10*$M$15/100</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1192,45 +1190,44 @@
         <v>540000</v>
       </c>
       <c r="E11" s="3">
-        <f>0.2*900000</f>
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>180000</v>
+        <f t="shared" si="1"/>
+        <v>240000</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>900000</v>
+        <f t="shared" si="2"/>
+        <v>1200000</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="2"/>
-        <v>900000</v>
+        <f t="shared" si="3"/>
+        <v>1200000</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="3"/>
-        <v>900000</v>
+        <f t="shared" si="4"/>
+        <v>1200000</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
       </c>
       <c r="N11">
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="O11" s="6">
-        <f>N11*$M$15/100</f>
-        <v>900000</v>
+        <f t="shared" si="0"/>
+        <v>1200000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17" thickBot="1">
+    <row r="12" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1246,24 +1243,24 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
       <c r="I12" s="11">
         <v>1</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="K12" s="3">
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
+      <c r="K12" s="3">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
       <c r="L12" t="s">
         <v>38</v>
       </c>
@@ -1271,47 +1268,47 @@
         <v>5</v>
       </c>
       <c r="O12" s="6">
-        <f>N12*$M$15/100</f>
+        <f t="shared" si="0"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17" thickBot="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="12">
         <f>SUM(D2:D12)</f>
         <v>2191000</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f>SUM(E2:E12)</f>
         <v>1004500</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f>SUM(F2:F12)</f>
         <v>5850</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <f>SUM(G2:G12)</f>
         <v>798875</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <f>SUM(H2:H12)</f>
         <v>4000225</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17">
+      <c r="I13" s="14"/>
+      <c r="J13" s="15">
         <f>SUM(J2:J12)</f>
         <v>4000225</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="18">
         <f>SUM(K2:K12)</f>
         <v>4000225</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
       <c r="L15" t="s">
         <v>40</v>
       </c>

--- a/Deliverable 1/BUDGET/budget draft.xlsx
+++ b/Deliverable 1/BUDGET/budget draft.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10305"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odnan\Documents\GitHub\projectsGroup3\Deliverable 1\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 1/BUDGET/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{78D05E4E-6107-684F-B5AC-8B4524ABC484}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78" yWindow="462" windowWidth="25440" windowHeight="14322"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,11 +180,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -673,28 +674,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.84765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.34765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.84765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.34765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="113.05" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="113" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -784,7 +783,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -833,7 +832,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -882,7 +881,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -930,7 +929,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -979,7 +978,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:15" ht="17" thickBot="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:15" ht="17" thickBot="1">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>4000225</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15">
       <c r="L15" t="s">
         <v>40</v>
       </c>
